--- a/Klasside_dokumentatsioon_Kala_KTA23E.xlsx
+++ b/Klasside_dokumentatsioon_Kala_KTA23E.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84842ccfb6ec6ca0/Documents/Rasmus/TPTlive/Programmeerimine I/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmu\Programmeerimine1\Programmeerimine1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{702217DE-A799-4247-8C8B-8187771C584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB16FDD5-65F6-470E-96CF-0129F655B74C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33C00F5-6A19-4A01-9A84-F924E5BFA209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{0BEA395B-03D3-44D1-B6B6-A1610ABDFEDB}"/>
+    <workbookView xWindow="4080" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{0BEA395B-03D3-44D1-B6B6-A1610ABDFEDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,14 +183,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -529,7 +529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD96AF15-D348-40BD-98B7-FF872A2BA14D}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -555,246 +557,246 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>50</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>100</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>50</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>50</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="8"/>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>20</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>100</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>20</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>100</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
